--- a/tut04/output_by_subject/PH523.csv.xlsx
+++ b/tut04/output_by_subject/PH523.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +942,512 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2012PH03</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2012PH20</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2012PH09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2012PH19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2012PH14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2012PH07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2012PH17</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2012PH15</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2012PH08</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2012PH10</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2012PH04</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2012PH21</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2012PH18</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2012PH11</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2012PH06</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2012PH02</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2012PH01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2012PH24</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2012PH22</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2012PH16</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2012PH13</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2012PH12</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2012PH05</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PH523</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
